--- a/biology/Botanique/Mandevilla/Mandevilla.xlsx
+++ b/biology/Botanique/Mandevilla/Mandevilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mandevilla est un genre de plantes vivaces tropicales ou subtropicales de la famille des Apocynaceae, originaires d'Amérique du Sud, dont certaines espèces sont cultivées comme plantes ornementales pour leurs fleurs.
 Ces espèces sont appelées « mandévillas », « mandévilléas » ou « dipladénias » du nom d'un genre, Dipladenia, maintenant considéré comme synonyme de Mandevilla.
-Ce genre doit son nom à un diplomate britannique en Argentine et amateur de jardins, Henry Mandeville (1773-1861) qui rapporta un premier exemplaire de Mandevilla laxa (espèce nommée alors Echites laxus) en Angleterre[1]. 
+Ce genre doit son nom à un diplomate britannique en Argentine et amateur de jardins, Henry Mandeville (1773-1861) qui rapporta un premier exemplaire de Mandevilla laxa (espèce nommée alors Echites laxus) en Angleterre. 
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lindley créa le genre[2] Mandevilla  en 1840 (Edwards's Bot. Reg. 26: t. 7.).
-Le genre Dipladenia fut décrit par Alphonse de Candolle (Prodrome, livre VIII, p. 481, 1854) dans la famille des Apocynaceae[3] afin de regrouper toutes les plantes qui ne portent que deux glandes au nectaire. Il donne vingt espèces : D. pastorum, D. tenuifolia, ... D. atropurpurea.
-Robert Woodson dans son étude[4] de 1933 des espèces néotropicales des Apocynoideae, fit plusieurs remaniements importants. Dans sa nouvelle circonscription du genre Mandevilla, il inclut comme synonymes des genres comme Exothostemon (G. Don) Woodson, Dipladenia A. DC., Laseguea A. DC., Amblyanthera Müll. Arg., Heterothrix Müll. Arg., et une partie de Echites P. Browne[5].
-Une révision significative de Mandevilla a été publiée en 1948 par Pichon[6] qui semble avoir la faveur des spécialistes. Il étend la circonscription de Woodson (1933) en incluant les Macrosiphonia parce que les critères discriminants utilisés par Woodson étaient inconsistants et arbitraires[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lindley créa le genre Mandevilla  en 1840 (Edwards's Bot. Reg. 26: t. 7.).
+Le genre Dipladenia fut décrit par Alphonse de Candolle (Prodrome, livre VIII, p. 481, 1854) dans la famille des Apocynaceae afin de regrouper toutes les plantes qui ne portent que deux glandes au nectaire. Il donne vingt espèces : D. pastorum, D. tenuifolia, ... D. atropurpurea.
+Robert Woodson dans son étude de 1933 des espèces néotropicales des Apocynoideae, fit plusieurs remaniements importants. Dans sa nouvelle circonscription du genre Mandevilla, il inclut comme synonymes des genres comme Exothostemon (G. Don) Woodson, Dipladenia A. DC., Laseguea A. DC., Amblyanthera Müll. Arg., Heterothrix Müll. Arg., et une partie de Echites P. Browne.
+Une révision significative de Mandevilla a été publiée en 1948 par Pichon qui semble avoir la faveur des spécialistes. Il étend la circonscription de Woodson (1933) en incluant les Macrosiphonia parce que les critères discriminants utilisés par Woodson étaient inconsistants et arbitraires.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des petites plantes grimpantes à fleurs formant des lianes de 2 m, aux tiges grêles et volubiles. 
 Elles portent des feuilles coriaces, veinées d'un vert brillant. Sa période de floraison va de mars à novembre et donne des fleurs de couleurs variées (blanc, rouge, jaune, rose).
@@ -580,7 +596,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des espèces originaires d'Amérique du Sud, où l'on trouve 90 espèces (Bolivie et Brésil, en particulier dans la Serra dos Órgãos), ainsi qu'en Amérique centrale où l'on trouve 21 espèces. La limite septentrionale est le Mexique, la limite méridionale, l'Argentine.
 </t>
@@ -611,14 +629,16 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'avril à novembre elles offrent une succession de fleurs en trompettes largement ouvertes, aux tons vifs, rose, rouge, jaune ou blanc.
 Il est recommandé de les cultiver en pots à sortir dès les beaux jours dans un terreau riche et léger, à maintenir frais en permanence. 
 Il faut les placer dans un endroit très éclairé et même au soleil direct. Dans le Midi de la France, il est cependant préférable de les soumettre à une exposition légèrement tamisée. Il est préférable de les faire hiverner à 10 °C. Si la culture se fait dans une véranda, il faut faire attention aux araignées rouges et aux cochenilles.
 Il existe une centaine d'espèces et de nombreux hybrides. Dans les roses, il existe  D. sanderi 'Rosea', D. splendens ou D. × amoeana 'Alice du Pont', rose foncé, au port vraiment grimpant. Parmi les hybrides à fleurs rouges 'Cerise' est un grand classique avec son rouge intense, ou alors 'Red Hiding Hood', ou 'Atropurpurea', à petites fleurs pourpres.  Dans les blancs, il existe 'Amabylis', très volubile, et M. laxa. Pour les fleurs jaunes, 'Citron' ou 'Tropical Dream', ce dernier offre un feuillage panaché de blanc.
 Ce sont des plantes prisées pour la culture en serre.
-Le dipladenia est souvent cultivé en intérieur sous nos climats européens. La plante se plaît très bien en extérieur pendant la saison estivale, en pot ou en pleine terre[7]. 
+Le dipladenia est souvent cultivé en intérieur sous nos climats européens. La plante se plaît très bien en extérieur pendant la saison estivale, en pot ou en pleine terre. 
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dipladénia est toxique par ingestion, de plus sa sève est irritante.
 </t>
@@ -678,7 +700,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amblyanthera Müll.Arg.
 Dipladenia A.DC.
@@ -713,9 +737,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 oct. 2011)[8] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 oct. 2011) :
 Mandevilla abortiva J.F.Morales
 Mandevilla achrestogyne (Woodson) Woodson
 Mandevilla acutiloba (A.DC.) Woodson
